--- a/bcg-knowledge-search-tool/Backend/Database.xlsx
+++ b/bcg-knowledge-search-tool/Backend/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natsu\Desktop\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef Moutaouakkil\Desktop\Github\BCG_Search_Website\bcg-knowledge-search-tool\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F28D7D-5739-492A-93DF-AD8FDBF9F4B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB9F44B-13A6-4BE4-9E3A-BB8805FBFFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{703CE4E9-C6CF-42C7-BD7A-9277A0A13859}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{703CE4E9-C6CF-42C7-BD7A-9277A0A13859}"/>
   </bookViews>
   <sheets>
     <sheet name="KnowledgeDatabase" sheetId="1" r:id="rId1"/>
@@ -1092,13 +1092,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -1115,6 +1108,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1165,7 +1165,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CCB9650-CB43-45ED-90CF-1D3F876FCB40}" name="Table13" displayName="Table13" ref="A1:Q19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CCB9650-CB43-45ED-90CF-1D3F876FCB40}" name="Table13" displayName="Table13" ref="A1:Q19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:Q19" xr:uid="{7CC0369A-1A28-41DC-AA40-E2FC548224AC}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{2C033641-CFCE-42C1-9215-5D3A55573B94}" name="PA classification" dataDxfId="16"/>
@@ -1191,9 +1191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1231,7 +1231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1337,7 +1337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1479,7 +1479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1491,10 +1491,10 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1:AK1048576"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>84</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
